--- a/CC/DataSheets/testNew.xlsx
+++ b/CC/DataSheets/testNew.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AB0215F\OneDrive - Absa\My Documents\PROJECTS\Credit Card\CC\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab020xd\IdeaProjects\KgaboSekhula\CC\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54043EEA-49E0-46B1-8B57-42CC83786B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B8D0B-2F94-45D9-B184-57215508CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E7BDC543-68CB-4E3D-8389-D66BFE0B821A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="198">
   <si>
     <t>AccountNo</t>
   </si>
@@ -352,206 +352,293 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>3045 Poelano Street</t>
-  </si>
-  <si>
-    <t>Nellmapius x4</t>
-  </si>
-  <si>
     <t>Silverton</t>
   </si>
   <si>
     <t>Pretoria</t>
   </si>
   <si>
-    <t>0122</t>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>COCO</t>
+  </si>
+  <si>
+    <t>Shabalala</t>
+  </si>
+  <si>
+    <t>kin@email.com</t>
+  </si>
+  <si>
+    <t>clientCasaCountryOfResidence</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>employmentSector</t>
+  </si>
+  <si>
+    <t>employmentOccupationCode</t>
+  </si>
+  <si>
+    <t>employmentOccupationLevel</t>
+  </si>
+  <si>
+    <t>employmentName</t>
+  </si>
+  <si>
+    <t>employementOccupationStatus</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t>Full Time Employed</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Suideroord</t>
+  </si>
+  <si>
+    <t>Johannessburg</t>
+  </si>
+  <si>
+    <t>Sms</t>
+  </si>
+  <si>
+    <t>homeLanguage</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>clientMaritalStatus</t>
+  </si>
+  <si>
+    <t>clientNationality</t>
+  </si>
+  <si>
+    <t>South African</t>
+  </si>
+  <si>
+    <t>clientBankAccountType</t>
+  </si>
+  <si>
+    <t>clientAccountNumber</t>
+  </si>
+  <si>
+    <t>clientBankName</t>
+  </si>
+  <si>
+    <t>First National Bank</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>clientSourceOfFunds</t>
+  </si>
+  <si>
+    <t>Allowance</t>
+  </si>
+  <si>
+    <t>clientResidentialStatus</t>
+  </si>
+  <si>
+    <t>nextOfKinCellPhoneNumber</t>
+  </si>
+  <si>
+    <t>nextOfKinSurname</t>
+  </si>
+  <si>
+    <t>nextOfKinRelationship</t>
+  </si>
+  <si>
+    <t>nextOfKinEmailAddress</t>
+  </si>
+  <si>
+    <t>email@yahoo.com</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Sekhula</t>
+  </si>
+  <si>
+    <t>Kgabo</t>
+  </si>
+  <si>
+    <t>nextOfKinFirstName</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Cheque Account</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>debitDay</t>
+  </si>
+  <si>
+    <t>Test28</t>
+  </si>
+  <si>
+    <t>password14</t>
+  </si>
+  <si>
+    <t>3058 Poelano Street</t>
+  </si>
+  <si>
+    <t>Nellmapius x17</t>
+  </si>
+  <si>
+    <t>23 Ferdinand Street</t>
   </si>
   <si>
     <t>012</t>
   </si>
   <si>
-    <t>0841231234</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
-  </si>
-  <si>
-    <t>COCO</t>
-  </si>
-  <si>
-    <t>Shabalala</t>
-  </si>
-  <si>
-    <t>kin@email.com</t>
-  </si>
-  <si>
-    <t>clientCasaCountryOfResidence</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
     <t>011</t>
   </si>
   <si>
-    <t>0818288238</t>
-  </si>
-  <si>
-    <t>employmentSector</t>
-  </si>
-  <si>
-    <t>employmentOccupationCode</t>
-  </si>
-  <si>
-    <t>employmentOccupationLevel</t>
-  </si>
-  <si>
-    <t>employmentName</t>
-  </si>
-  <si>
-    <t>employementOccupationStatus</t>
-  </si>
-  <si>
-    <t>referenceNumber</t>
-  </si>
-  <si>
-    <t>Full Time Employed</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>10 Ferdinand Street</t>
-  </si>
-  <si>
-    <t>Suideroord</t>
-  </si>
-  <si>
-    <t>Johannessburg</t>
-  </si>
-  <si>
-    <t>Sms</t>
-  </si>
-  <si>
-    <t>homeLanguage</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>clientMaritalStatus</t>
-  </si>
-  <si>
-    <t>clientNationality</t>
-  </si>
-  <si>
-    <t>South African</t>
-  </si>
-  <si>
-    <t>clientBankAccountType</t>
-  </si>
-  <si>
-    <t>clientAccountNumber</t>
-  </si>
-  <si>
-    <t>102206141954381649</t>
-  </si>
-  <si>
-    <t>clientBankName</t>
-  </si>
-  <si>
-    <t>First National Bank</t>
-  </si>
-  <si>
     <t>0900000000000000</t>
   </si>
   <si>
-    <t>Cheques</t>
-  </si>
-  <si>
-    <t>clientSourceOfFunds</t>
-  </si>
-  <si>
-    <t>Allowance</t>
-  </si>
-  <si>
-    <t>clientResidentialStatus</t>
-  </si>
-  <si>
-    <t>nextOfKinCellPhoneNumber</t>
-  </si>
-  <si>
-    <t>nextOfKinSurname</t>
-  </si>
-  <si>
-    <t>nextOfKinRelationship</t>
-  </si>
-  <si>
-    <t>nextOfKinEmailAddress</t>
-  </si>
-  <si>
-    <t>email@yahoo.com</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Sekhula</t>
-  </si>
-  <si>
-    <t>Kgabo</t>
-  </si>
-  <si>
-    <t>0761234567</t>
-  </si>
-  <si>
-    <t>nextOfKinFirstName</t>
-  </si>
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>Cheque Account</t>
-  </si>
-  <si>
-    <t>accountType</t>
-  </si>
-  <si>
-    <t>accountNumber</t>
-  </si>
-  <si>
-    <t>4051111680</t>
-  </si>
-  <si>
-    <t>debitDay</t>
-  </si>
-  <si>
-    <t>LE GRANGE</t>
-  </si>
-  <si>
-    <t>FRANCOIS</t>
+    <t>0761234571</t>
+  </si>
+  <si>
+    <t>0818288242</t>
+  </si>
+  <si>
+    <t>0841231238</t>
+  </si>
+  <si>
+    <t>Run Status</t>
+  </si>
+  <si>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t>CC Reference</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>COURTNEY</t>
+  </si>
+  <si>
+    <t>MKANGELI</t>
+  </si>
+  <si>
+    <t>UNATHI</t>
+  </si>
+  <si>
+    <t>DLAMBULO</t>
+  </si>
+  <si>
+    <t>BUSISWE</t>
+  </si>
+  <si>
+    <t>NDHLOVU</t>
+  </si>
+  <si>
+    <t>Yinka</t>
+  </si>
+  <si>
+    <t>BLOEM</t>
+  </si>
+  <si>
+    <t>COENIE</t>
+  </si>
+  <si>
+    <t>NAIDOO</t>
+  </si>
+  <si>
+    <t>KERSHLEN</t>
+  </si>
+  <si>
+    <t>DEN BERG</t>
+  </si>
+  <si>
+    <t>JACOBUS</t>
+  </si>
+  <si>
+    <t>STEYN</t>
+  </si>
+  <si>
+    <t>FIBIAN</t>
+  </si>
+  <si>
+    <t>WYK</t>
+  </si>
+  <si>
+    <t>HEINWILL</t>
+  </si>
+  <si>
+    <t>VERNETH BEE</t>
+  </si>
+  <si>
+    <t>TEREAL</t>
+  </si>
+  <si>
+    <t>JANSE VAN RENSBURG</t>
+  </si>
+  <si>
+    <t>SEAN</t>
+  </si>
+  <si>
+    <t>MEYER</t>
+  </si>
+  <si>
+    <t>SHANE</t>
+  </si>
+  <si>
+    <t>SOOKDHOO</t>
+  </si>
+  <si>
+    <t>VINAY</t>
+  </si>
+  <si>
+    <t>ENVERALLI</t>
+  </si>
+  <si>
+    <t>FARAAZ</t>
+  </si>
+  <si>
+    <t>DHOOMA</t>
+  </si>
+  <si>
+    <t>FAUZUL-AMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,8 +684,147 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,12 +833,179 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -620,19 +1013,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -641,24 +1179,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,22 +1572,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="32.54296875" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" customWidth="1"/>
-    <col min="11" max="13" width="18.81640625" customWidth="1"/>
-    <col min="14" max="14" width="23.1796875" customWidth="1"/>
-    <col min="15" max="15" width="24.54296875" customWidth="1"/>
-    <col min="16" max="16" width="19.54296875" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" customWidth="1"/>
-    <col min="19" max="19" width="24.26953125" customWidth="1"/>
-    <col min="20" max="20" width="26.453125" customWidth="1"/>
-    <col min="29" max="29" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="15.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.54296875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.54296875" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="18.81640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="23.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.54296875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="21" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.81640625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.26953125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26.453125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1263,456 +1857,3204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D1F4CC-5002-4B6A-BCD2-EDE6985D940B}">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BJ6" sqref="BJ6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1796875" customWidth="1"/>
-    <col min="26" max="26" width="21.453125" customWidth="1"/>
-    <col min="27" max="28" width="16.1796875" customWidth="1"/>
-    <col min="29" max="29" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="16.1796875" customWidth="1"/>
-    <col min="52" max="54" width="20.81640625" customWidth="1"/>
-    <col min="59" max="59" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="23.36328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="24.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="32.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="29.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="28.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="34.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="40" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="21.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="25.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="19.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="52" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="53" max="55" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="61" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:65">
       <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
+      <c r="A2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4048799968</v>
+      </c>
+      <c r="E2" s="16">
+        <v>9402201084083</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="AA2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV2" s="9">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="AW2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AY2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL2" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
+      <c r="A3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4048799976</v>
+      </c>
+      <c r="E3" s="16">
+        <v>9402201106084</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AG3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AH3" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
+      <c r="A4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4048799984</v>
+      </c>
+      <c r="E4" s="16">
+        <v>9402201279089</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT1" s="3" t="s">
+      <c r="T4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="9">
         <v>100</v>
       </c>
-      <c r="AU1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AN4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="AZ1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BI4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="A5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4048799992</v>
+      </c>
+      <c r="E5" s="16">
+        <v>9402201328084</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="BC1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE5" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="BE1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="A6" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH1" s="3" t="s">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4048800016</v>
+      </c>
+      <c r="E6" s="16">
+        <v>9402205016081</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="I6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="BJ1" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>167</v>
+      <c r="Y6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI6" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM6">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
-      <c r="A2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4047249556</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="7" spans="1:65">
+      <c r="A7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4048800024</v>
+      </c>
+      <c r="E7" s="16">
+        <v>9402205073082</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J7" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE7" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="9">
-        <v>4612045138086</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="BK7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL7" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4048800032</v>
+      </c>
+      <c r="E8" s="16">
+        <v>9402205094088</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R8" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Z8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="AO8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="AP8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT8" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="BC8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4048800058</v>
+      </c>
+      <c r="E9" s="16">
+        <v>9402205097081</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W9" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ9" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="AV9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="A10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4048800066</v>
+      </c>
+      <c r="E10" s="16">
+        <v>9402205100083</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AV10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB2" s="4" t="s">
+      <c r="BA10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
+      <c r="A11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4048800074</v>
+      </c>
+      <c r="E11" s="16">
+        <v>9402205106080</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="BB11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL11" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="29">
+      <c r="A12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4048800082</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9402205114084</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH12" s="9">
         <v>2091</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AI12" s="9">
         <v>32000</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AJ12" s="9">
         <v>20990</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AK12" s="9">
         <v>300</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AL12" s="9">
         <v>200</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AM12" s="9">
         <v>100</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL12" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="A13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4048800090</v>
+      </c>
+      <c r="E13" s="16">
+        <v>9402205126088</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AO2" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AB13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ13" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI13" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL13" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65">
+      <c r="A14" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4048800105</v>
+      </c>
+      <c r="E14" s="16">
+        <v>9402205130080</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W14" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AQ2" s="3">
-        <v>2468642</v>
-      </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AB14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AS2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT2" s="3">
+      <c r="AC14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ14" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV14" s="9">
         <v>0</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AW14" s="9">
         <v>0</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD14" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI14" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL14" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
+      <c r="A15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4048800113</v>
+      </c>
+      <c r="E15" s="16">
+        <v>9402205157083</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W15" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL15" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM15" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ15" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS15" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY15" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY2" s="10" t="s">
+      <c r="AZ15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG15" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AZ2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BH15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI15" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BJ15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BL15" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65">
+      <c r="A16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4048800121</v>
+      </c>
+      <c r="E16" s="16">
+        <v>9402205192080</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1.0220614195438099E+17</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1324</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="U16" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="W16" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="X16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>2091</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>32000</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>20990</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>300</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>200</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>100</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>1234580</v>
+      </c>
+      <c r="AR16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>2468655</v>
+      </c>
+      <c r="AT16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF16" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="BD2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:63">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="BG16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI16" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL16" s="8">
+        <v>4048771299</v>
+      </c>
+      <c r="BM16">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{3B149D1F-7575-43B2-A684-753464D0DD6C}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{11479103-44F8-4172-94D7-D76710D59C54}"/>
+    <hyperlink ref="Y2" r:id="rId1" display="mailto:email@email.com" xr:uid="{2CE4CB39-7FB2-4782-A7D1-29392FC5C01C}"/>
+    <hyperlink ref="AU2" r:id="rId2" display="mailto:kin@email.com" xr:uid="{B1F33A57-55F6-4095-AC67-8F799B124A9A}"/>
+    <hyperlink ref="Y3" r:id="rId3" display="mailto:email@email.com" xr:uid="{66B1DA88-5428-438E-9B56-3508B8B21BBF}"/>
+    <hyperlink ref="AU3" r:id="rId4" display="mailto:kin@email.com" xr:uid="{A02CAFE5-FB07-48D3-BF52-C1F7B94CCE9E}"/>
+    <hyperlink ref="Y4" r:id="rId5" display="mailto:email@email.com" xr:uid="{81CD81E9-D6D0-49DA-966D-EAC29400783B}"/>
+    <hyperlink ref="AU4" r:id="rId6" display="mailto:kin@email.com" xr:uid="{CB712C59-7DF1-4628-B449-7831F6D8C05C}"/>
+    <hyperlink ref="Y5" r:id="rId7" display="mailto:email@email.com" xr:uid="{F517EF1B-273F-414E-AD39-33102ADC96BF}"/>
+    <hyperlink ref="AU5" r:id="rId8" display="mailto:kin@email.com" xr:uid="{CFF53DF3-0DAC-433C-BE4B-66B76C87C690}"/>
+    <hyperlink ref="Y6" r:id="rId9" display="mailto:email@email.com" xr:uid="{4C3ACB33-239F-4CB7-A12A-B7BD5829520E}"/>
+    <hyperlink ref="AU6" r:id="rId10" display="mailto:kin@email.com" xr:uid="{AB496EBA-D76D-4015-B8C7-4E7927BB79E0}"/>
+    <hyperlink ref="Y7" r:id="rId11" display="mailto:email@email.com" xr:uid="{472CF79A-4FEB-422B-BFB1-BB1DA03859D4}"/>
+    <hyperlink ref="AU7" r:id="rId12" display="mailto:kin@email.com" xr:uid="{FD96D2A4-8812-4A72-8BD6-E5425A43E601}"/>
+    <hyperlink ref="Y8" r:id="rId13" display="mailto:email@email.com" xr:uid="{74FBEACF-65F0-4343-959D-9C1800523A8F}"/>
+    <hyperlink ref="AU8" r:id="rId14" display="mailto:kin@email.com" xr:uid="{E4D6C06E-2B5A-4F33-B31A-D9E3746CC3E2}"/>
+    <hyperlink ref="Y9" r:id="rId15" display="mailto:email@email.com" xr:uid="{61F6D70A-CD47-4545-9774-45DA8B952BBC}"/>
+    <hyperlink ref="AU9" r:id="rId16" display="mailto:kin@email.com" xr:uid="{7C41D0AC-D599-4C77-AC56-EF394DD42B63}"/>
+    <hyperlink ref="Y10" r:id="rId17" display="mailto:email@email.com" xr:uid="{F8AA51D7-A003-4306-BE32-5909070D0918}"/>
+    <hyperlink ref="AU10" r:id="rId18" display="mailto:kin@email.com" xr:uid="{E18FDC39-23C1-49D4-84AC-74E31F5A3210}"/>
+    <hyperlink ref="Y11" r:id="rId19" display="mailto:email@email.com" xr:uid="{4F6C3089-8F2D-49F2-B1E4-F09C2F915F09}"/>
+    <hyperlink ref="AU11" r:id="rId20" display="mailto:kin@email.com" xr:uid="{D611D803-702D-4DE9-8875-6F6DBFA75D5E}"/>
+    <hyperlink ref="Y12" r:id="rId21" display="mailto:email@email.com" xr:uid="{A455EA9D-E371-461A-BB70-9398191D2F66}"/>
+    <hyperlink ref="AU12" r:id="rId22" display="mailto:kin@email.com" xr:uid="{58FC36AD-52AB-4138-8F28-0B1985D8F455}"/>
+    <hyperlink ref="Y13" r:id="rId23" display="mailto:email@email.com" xr:uid="{B09CD089-30ED-4F11-9A47-9CFF5D9B2333}"/>
+    <hyperlink ref="AU13" r:id="rId24" display="mailto:kin@email.com" xr:uid="{577F714F-C16B-42D5-96E5-878EAE08B5DC}"/>
+    <hyperlink ref="Y14" r:id="rId25" display="mailto:email@email.com" xr:uid="{95552C91-94CD-48CA-8912-F50F11434676}"/>
+    <hyperlink ref="AU14" r:id="rId26" display="mailto:kin@email.com" xr:uid="{96535894-0C03-4B86-A17E-D65350BB0CFA}"/>
+    <hyperlink ref="Y15" r:id="rId27" display="mailto:email@email.com" xr:uid="{918AF135-B58D-4F9F-A66B-959AC51E1C8A}"/>
+    <hyperlink ref="AU15" r:id="rId28" display="mailto:kin@email.com" xr:uid="{804F57DE-CDA8-4718-8C95-B275852DF27B}"/>
+    <hyperlink ref="Y16" r:id="rId29" display="mailto:email@email.com" xr:uid="{F5AC5368-A38F-4E6F-9EA0-5D1ED11F4CC7}"/>
+    <hyperlink ref="AU16" r:id="rId30" display="mailto:kin@email.com" xr:uid="{5D6EA704-AFC6-4AC4-A666-9FB44320446D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>